--- a/Поля.xlsx
+++ b/Поля.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Параметр</t>
   </si>
@@ -52,12 +52,6 @@
     <t>да или нет</t>
   </si>
   <si>
-    <t>пол</t>
-  </si>
-  <si>
-    <t>м или ж</t>
-  </si>
-  <si>
     <t>регистрация</t>
   </si>
   <si>
@@ -169,18 +163,6 @@
     <t>Категория должности работы по совместительству</t>
   </si>
   <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>имя</t>
-  </si>
-  <si>
-    <t>отчество</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
     <t>место рождения</t>
   </si>
   <si>
@@ -190,24 +172,9 @@
     <t>ИНН</t>
   </si>
   <si>
-    <t>СНИЛС</t>
-  </si>
-  <si>
     <t>При изменении ФИО укажите ФИО до изменения</t>
   </si>
   <si>
-    <t>Серия и номер паспорта</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>Код подразделения</t>
-  </si>
-  <si>
-    <t>Кем выдан</t>
-  </si>
-  <si>
     <t>мобильный телефон</t>
   </si>
   <si>
@@ -220,19 +187,7 @@
     <t>телефон по месту жительства</t>
   </si>
   <si>
-    <t>ИНН организации</t>
-  </si>
-  <si>
-    <t>Наименование организации</t>
-  </si>
-  <si>
     <t>Сфера деятельности организации</t>
-  </si>
-  <si>
-    <t>телефон работодателя</t>
-  </si>
-  <si>
-    <t>должность</t>
   </si>
   <si>
     <t>Доход от основной деятельности</t>
@@ -314,10 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -622,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -706,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -717,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -731,26 +686,26 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -758,13 +713,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,7 +727,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -783,7 +738,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -791,24 +746,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +782,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -838,15 +793,15 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -855,275 +810,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
